--- a/MachineLearning/PART2/df_sample.xlsx
+++ b/MachineLearning/PART2/df_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>algol</t>
   </si>
@@ -43,16 +43,7 @@
     <t>A+</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>C+</t>
   </si>
 </sst>
 </file>
@@ -438,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +454,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
